--- a/Data/EUDA/Tampon/sex_deja_traite.xlsx
+++ b/Data/EUDA/Tampon/sex_deja_traite.xlsx
@@ -441,22 +441,22 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>All.deja</t>
+          <t>All.deja.sex</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Males.deja</t>
+          <t>Males.deja.sex</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Females.deja</t>
+          <t>Females.deja.sex</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Not known / missing.deja</t>
+          <t>Not known / missing.deja.sex</t>
         </is>
       </c>
     </row>
